--- a/lists.xlsx
+++ b/lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\OneDrive\Desktop\EduNext\EXCEL &amp; WORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3332F138-FDA9-4D20-806A-4BDB2ACB54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FAAD01-53E6-4F86-AE08-C0929D882A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{ED38B824-753D-4AB0-BDF4-4254002B63EA}"/>
   </bookViews>
@@ -34,24 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Lifeline(Doctor Recommendation System)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name of Project </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-   </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Objective of Proposed System </t>
@@ -91,6 +76,15 @@
   </si>
   <si>
     <t>Raunak Seth (2100290110128), Manas Tripathi(2100290110084)</t>
+  </si>
+  <si>
+    <t>Name of Project</t>
+  </si>
+  <si>
+    <t>Person Recommendation System</t>
+  </si>
+  <si>
+    <t>Recommendation of Person</t>
   </si>
 </sst>
 </file>
@@ -479,45 +473,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB53B1D-BB77-44F1-9B92-CD0F9563CA38}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
